--- a/excel/develop.xlsx
+++ b/excel/develop.xlsx
@@ -18,6 +18,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.矿产产出翻倍（参数：翻倍数）
+2.所有矿产产出翻倍（参数：翻倍数）
+3.销售游戏内容获取奖励增加（参数：百分比）
+4.所有矿产等级增加（参数：增加等级）</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
@@ -129,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +182,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -473,11 +527,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -661,5 +715,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/develop.xlsx
+++ b/excel/develop.xlsx
@@ -528,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J1" sqref="J1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -710,7 +710,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/develop.xlsx
+++ b/excel/develop.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>resource</t>
   </si>
@@ -106,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xiangmu_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,6 +153,10 @@
   </si>
   <si>
     <t>生效矿产组（-1为全部）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +527,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:N1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -561,16 +557,16 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -590,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -619,16 +615,16 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -643,10 +639,10 @@
         <v>20201</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4" s="4">
         <v>-1</v>
@@ -670,10 +666,10 @@
         <v>20201</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="2">
@@ -695,10 +691,10 @@
         <v>20201</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G6" s="4">
         <v>-1</v>

--- a/excel/develop.xlsx
+++ b/excel/develop.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>resource</t>
   </si>
@@ -157,6 +157,10 @@
   </si>
   <si>
     <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +531,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -624,7 +628,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">

--- a/excel/develop.xlsx
+++ b/excel/develop.xlsx
@@ -47,9 +47,8 @@
           </rPr>
           <t xml:space="preserve">
 1.矿产产出翻倍（参数：翻倍数）
-2.所有矿产产出翻倍（参数：翻倍数）
-3.销售游戏内容获取奖励增加（参数：百分比）
-4.所有矿产等级增加（参数：增加等级）</t>
+2.销售游戏内容获取奖励增加（参数：百分比）
+3.所有矿产等级增加（参数：增加等级）</t>
         </r>
       </text>
     </comment>
@@ -531,7 +530,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/develop.xlsx
+++ b/excel/develop.xlsx
@@ -530,7 +530,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -621,7 +621,7 @@
         <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>

--- a/excel/develop.xlsx
+++ b/excel/develop.xlsx
@@ -530,7 +530,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -676,7 +676,7 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" s="2">
         <v>1000</v>
@@ -703,10 +703,10 @@
         <v>-1</v>
       </c>
       <c r="H6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/excel/develop.xlsx
+++ b/excel/develop.xlsx
@@ -48,7 +48,7 @@
           <t xml:space="preserve">
 1.矿产产出翻倍（参数：翻倍数）
 2.销售游戏内容获取奖励增加（参数：百分比）
-3.所有矿产等级增加（参数：增加等级）</t>
+3.矿产等级增加（参数：增加等级）</t>
         </r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="55">
   <si>
     <t>resource</t>
   </si>
@@ -132,21 +132,10 @@
     <t>xiangmu_2</t>
   </si>
   <si>
-    <t>xiangmu_3</t>
-  </si>
-  <si>
     <t>1,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗类型（道具id）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,6 +149,114 @@
   </si>
   <si>
     <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级效果翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级效果翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶产出增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuang_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuang_2</t>
+  </si>
+  <si>
+    <t>kuang_3</t>
+  </si>
+  <si>
+    <t>kuang_4</t>
+  </si>
+  <si>
+    <t>kuang_5</t>
+  </si>
+  <si>
+    <t>kuang_6</t>
+  </si>
+  <si>
+    <t>kuang_7</t>
+  </si>
+  <si>
+    <t>kuang_8</t>
+  </si>
+  <si>
+    <t>kuang_9</t>
+  </si>
+  <si>
+    <t>kuang_10</t>
+  </si>
+  <si>
+    <t>kuang_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210000</t>
+  </si>
+  <si>
+    <t>710000000000</t>
+  </si>
+  <si>
+    <t>5200000000000</t>
+  </si>
+  <si>
+    <t>53000000000000</t>
+  </si>
+  <si>
+    <t>100000000000000</t>
+  </si>
+  <si>
+    <t>1000000000000000000000000</t>
+  </si>
+  <si>
+    <t>10000000000000000000000000</t>
+  </si>
+  <si>
+    <t>全部翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产增加等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2矿产增加等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级效果翻倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -235,17 +332,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,20 +650,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="5" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -563,10 +688,10 @@
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
@@ -618,23 +743,25 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>101</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C4" s="2">
         <v>20101</v>
       </c>
@@ -642,19 +769,19 @@
         <v>20201</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>100000</v>
+        <v>19</v>
+      </c>
+      <c r="G4" s="5">
+        <v>101</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -662,24 +789,26 @@
         <v>102</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>20102</v>
       </c>
       <c r="D5" s="2">
-        <v>20201</v>
+        <v>20202</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1000</v>
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5">
+        <v>102</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>850000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -691,24 +820,1534 @@
         <v>20103</v>
       </c>
       <c r="D6" s="2">
-        <v>20201</v>
+        <v>20203</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
+        <v>103</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>5700000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>104</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3">
+        <v>20104</v>
+      </c>
+      <c r="D7" s="2">
+        <v>20204</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="5">
+        <v>104</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>102000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>105</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>20105</v>
+      </c>
+      <c r="D8" s="2">
+        <v>20205</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="5">
+        <v>105</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1320000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>106</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3">
+        <v>20106</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20206</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="5">
+        <v>106</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>4900000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>107</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
+        <v>20107</v>
+      </c>
+      <c r="D10" s="2">
+        <v>20207</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="5">
+        <v>107</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>59000000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>108</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3">
+        <v>20108</v>
+      </c>
+      <c r="D11" s="2">
+        <v>20208</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="5">
+        <v>108</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>109</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
+        <v>20109</v>
+      </c>
+      <c r="D12" s="2">
+        <v>20209</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="5">
+        <v>109</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>110</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3">
+        <v>20110</v>
+      </c>
+      <c r="D13" s="2">
+        <v>20210</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="5">
+        <v>110</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>111</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2">
+        <v>20111</v>
+      </c>
+      <c r="D14" s="2">
+        <v>20211</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="6">
         <v>-1</v>
       </c>
-      <c r="H6" s="2">
-        <v>4</v>
-      </c>
-      <c r="I6" s="2">
-        <v>10</v>
-      </c>
-    </row>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>112</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3">
+        <v>20112</v>
+      </c>
+      <c r="D15" s="2">
+        <v>20212</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="5">
+        <v>101</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8">
+        <v>207000000000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>113</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
+        <v>20113</v>
+      </c>
+      <c r="D16" s="2">
+        <v>20213</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="5">
+        <v>102</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8">
+        <v>2360000000000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>114</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3">
+        <v>20114</v>
+      </c>
+      <c r="D17" s="2">
+        <v>20214</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="5">
+        <v>103</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
+        <v>2.7E+16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>115</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2">
+        <v>20115</v>
+      </c>
+      <c r="D18" s="2">
+        <v>20215</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="5">
+        <v>104</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8">
+        <v>5.01E+17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>116</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3">
+        <v>20116</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20216</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="5">
+        <v>105</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8">
+        <v>6.43E+18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>117</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2">
+        <v>20117</v>
+      </c>
+      <c r="D20" s="2">
+        <v>20217</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="5">
+        <v>106</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8">
+        <v>3.678E+19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>118</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3">
+        <v>20118</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20218</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="5">
+        <v>107</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8">
+        <v>4.4E+20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>119</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
+        <v>20119</v>
+      </c>
+      <c r="D22" s="2">
+        <v>20219</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="5">
+        <v>108</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="8">
+        <v>5.2899999999999995E+21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>120</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3">
+        <v>20120</v>
+      </c>
+      <c r="D23" s="2">
+        <v>20220</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="5">
+        <v>109</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8">
+        <v>6.3499999999999997E+22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>121</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2">
+        <v>20121</v>
+      </c>
+      <c r="D24" s="2">
+        <v>20221</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="5">
+        <v>110</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="8">
+        <v>4.6999999999999997E+23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>122</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3">
+        <v>20122</v>
+      </c>
+      <c r="D25" s="2">
+        <v>20222</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>123</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2">
+        <v>20123</v>
+      </c>
+      <c r="D26" s="2">
+        <v>20223</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>201</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="4">
+        <v>21101</v>
+      </c>
+      <c r="D27" s="4">
+        <v>21201</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>4</v>
+      </c>
+      <c r="I27" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>202</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="4">
+        <v>21102</v>
+      </c>
+      <c r="D28" s="4">
+        <v>21202</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>4</v>
+      </c>
+      <c r="I28" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>203</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4">
+        <v>21103</v>
+      </c>
+      <c r="D29" s="4">
+        <v>21203</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>4</v>
+      </c>
+      <c r="I29" s="8">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>204</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="4">
+        <v>21104</v>
+      </c>
+      <c r="D30" s="4">
+        <v>21204</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="5">
+        <v>101</v>
+      </c>
+      <c r="H30" s="2">
+        <v>4</v>
+      </c>
+      <c r="I30" s="8">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>205</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="4">
+        <v>21105</v>
+      </c>
+      <c r="D31" s="4">
+        <v>21205</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="5">
+        <v>102</v>
+      </c>
+      <c r="H31" s="2">
+        <v>4</v>
+      </c>
+      <c r="I31" s="8">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>206</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="4">
+        <v>21106</v>
+      </c>
+      <c r="D32" s="4">
+        <v>21206</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="5">
+        <v>103</v>
+      </c>
+      <c r="H32" s="2">
+        <v>4</v>
+      </c>
+      <c r="I32" s="8">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>207</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="4">
+        <v>21107</v>
+      </c>
+      <c r="D33" s="4">
+        <v>21207</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="5">
+        <v>104</v>
+      </c>
+      <c r="H33" s="2">
+        <v>4</v>
+      </c>
+      <c r="I33" s="8">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>208</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="4">
+        <v>21108</v>
+      </c>
+      <c r="D34" s="4">
+        <v>21208</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="5">
+        <v>105</v>
+      </c>
+      <c r="H34" s="2">
+        <v>4</v>
+      </c>
+      <c r="I34" s="8">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>209</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="4">
+        <v>21109</v>
+      </c>
+      <c r="D35" s="4">
+        <v>21209</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="5">
+        <v>106</v>
+      </c>
+      <c r="H35" s="2">
+        <v>4</v>
+      </c>
+      <c r="I35" s="8">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>210</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="4">
+        <v>21110</v>
+      </c>
+      <c r="D36" s="4">
+        <v>21210</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="5">
+        <v>107</v>
+      </c>
+      <c r="H36" s="2">
+        <v>4</v>
+      </c>
+      <c r="I36" s="8">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>211</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="4">
+        <v>21111</v>
+      </c>
+      <c r="D37" s="4">
+        <v>21211</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="5">
+        <v>108</v>
+      </c>
+      <c r="H37" s="2">
+        <v>4</v>
+      </c>
+      <c r="I37" s="8">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>212</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="4">
+        <v>21112</v>
+      </c>
+      <c r="D38" s="4">
+        <v>21212</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="5">
+        <v>109</v>
+      </c>
+      <c r="H38" s="2">
+        <v>4</v>
+      </c>
+      <c r="I38" s="8">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>213</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="4">
+        <v>21113</v>
+      </c>
+      <c r="D39" s="4">
+        <v>21213</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="5">
+        <v>110</v>
+      </c>
+      <c r="H39" s="2">
+        <v>4</v>
+      </c>
+      <c r="I39" s="8">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>214</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="4">
+        <v>21114</v>
+      </c>
+      <c r="D40" s="4">
+        <v>21214</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="5">
+        <v>101</v>
+      </c>
+      <c r="H40" s="2">
+        <v>4</v>
+      </c>
+      <c r="I40" s="8">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>215</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="4">
+        <v>21115</v>
+      </c>
+      <c r="D41" s="4">
+        <v>21215</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="5">
+        <v>102</v>
+      </c>
+      <c r="H41" s="2">
+        <v>4</v>
+      </c>
+      <c r="I41" s="8">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>216</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="4">
+        <v>21116</v>
+      </c>
+      <c r="D42" s="4">
+        <v>21216</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="5">
+        <v>103</v>
+      </c>
+      <c r="H42" s="2">
+        <v>4</v>
+      </c>
+      <c r="I42" s="8">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>217</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="4">
+        <v>21117</v>
+      </c>
+      <c r="D43" s="4">
+        <v>21217</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="5">
+        <v>104</v>
+      </c>
+      <c r="H43" s="2">
+        <v>4</v>
+      </c>
+      <c r="I43" s="8">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>218</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="4">
+        <v>21118</v>
+      </c>
+      <c r="D44" s="4">
+        <v>21218</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="5">
+        <v>105</v>
+      </c>
+      <c r="H44" s="2">
+        <v>4</v>
+      </c>
+      <c r="I44" s="8">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>219</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="4">
+        <v>21119</v>
+      </c>
+      <c r="D45" s="4">
+        <v>21219</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="5">
+        <v>106</v>
+      </c>
+      <c r="H45" s="2">
+        <v>4</v>
+      </c>
+      <c r="I45" s="8">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>220</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="4">
+        <v>21120</v>
+      </c>
+      <c r="D46" s="4">
+        <v>21220</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="5">
+        <v>107</v>
+      </c>
+      <c r="H46" s="2">
+        <v>4</v>
+      </c>
+      <c r="I46" s="8">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>221</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="4">
+        <v>21121</v>
+      </c>
+      <c r="D47" s="4">
+        <v>21221</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="5">
+        <v>108</v>
+      </c>
+      <c r="H47" s="2">
+        <v>4</v>
+      </c>
+      <c r="I47" s="8">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>222</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="4">
+        <v>21122</v>
+      </c>
+      <c r="D48" s="4">
+        <v>21222</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="5">
+        <v>109</v>
+      </c>
+      <c r="H48" s="2">
+        <v>4</v>
+      </c>
+      <c r="I48" s="8">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>223</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="4">
+        <v>21123</v>
+      </c>
+      <c r="D49" s="4">
+        <v>21223</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="5">
+        <v>110</v>
+      </c>
+      <c r="H49" s="2">
+        <v>4</v>
+      </c>
+      <c r="I49" s="8">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>224</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="4">
+        <v>21124</v>
+      </c>
+      <c r="D50" s="4">
+        <v>21224</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H50" s="2">
+        <v>4</v>
+      </c>
+      <c r="I50" s="8">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>225</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="4">
+        <v>21125</v>
+      </c>
+      <c r="D51" s="4">
+        <v>21225</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>4</v>
+      </c>
+      <c r="I51" s="8">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>301</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="4">
+        <v>22101</v>
+      </c>
+      <c r="D52" s="4">
+        <v>22201</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="5">
+        <v>101</v>
+      </c>
+      <c r="H52" s="2">
+        <v>5</v>
+      </c>
+      <c r="I52" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>302</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="4">
+        <v>22102</v>
+      </c>
+      <c r="D53" s="4">
+        <v>22202</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G53" s="5">
+        <v>102</v>
+      </c>
+      <c r="H53" s="2">
+        <v>5</v>
+      </c>
+      <c r="I53" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>303</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="4">
+        <v>22103</v>
+      </c>
+      <c r="D54" s="4">
+        <v>22203</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54" s="5">
+        <v>103</v>
+      </c>
+      <c r="H54" s="2">
+        <v>5</v>
+      </c>
+      <c r="I54" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>304</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="4">
+        <v>22104</v>
+      </c>
+      <c r="D55" s="4">
+        <v>22204</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G55" s="5">
+        <v>104</v>
+      </c>
+      <c r="H55" s="2">
+        <v>5</v>
+      </c>
+      <c r="I55" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>305</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="4">
+        <v>22105</v>
+      </c>
+      <c r="D56" s="4">
+        <v>22205</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G56" s="5">
+        <v>105</v>
+      </c>
+      <c r="H56" s="2">
+        <v>5</v>
+      </c>
+      <c r="I56" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>306</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="4">
+        <v>22106</v>
+      </c>
+      <c r="D57" s="4">
+        <v>22206</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G57" s="5">
+        <v>106</v>
+      </c>
+      <c r="H57" s="2">
+        <v>5</v>
+      </c>
+      <c r="I57" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>307</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="4">
+        <v>22107</v>
+      </c>
+      <c r="D58" s="4">
+        <v>22207</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" s="5">
+        <v>107</v>
+      </c>
+      <c r="H58" s="2">
+        <v>5</v>
+      </c>
+      <c r="I58" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>308</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="4">
+        <v>22108</v>
+      </c>
+      <c r="D59" s="4">
+        <v>22208</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59" s="5">
+        <v>108</v>
+      </c>
+      <c r="H59" s="2">
+        <v>5</v>
+      </c>
+      <c r="I59" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>309</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="4">
+        <v>22109</v>
+      </c>
+      <c r="D60" s="4">
+        <v>22209</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60" s="5">
+        <v>109</v>
+      </c>
+      <c r="H60" s="2">
+        <v>5</v>
+      </c>
+      <c r="I60" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>310</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="4">
+        <v>22110</v>
+      </c>
+      <c r="D61" s="4">
+        <v>22210</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G61" s="5">
+        <v>110</v>
+      </c>
+      <c r="H61" s="2">
+        <v>5</v>
+      </c>
+      <c r="I61" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/develop.xlsx
+++ b/excel/develop.xlsx
@@ -148,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1级效果翻倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,6 +253,10 @@
   </si>
   <si>
     <t>3级效果翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,6 +264,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,10 +367,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -652,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -752,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -760,7 +763,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2">
         <v>20101</v>
@@ -769,7 +772,7 @@
         <v>20201</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>19</v>
@@ -781,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -796,7 +799,7 @@
         <v>20202</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
@@ -823,7 +826,7 @@
         <v>20203</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
@@ -850,7 +853,7 @@
         <v>20204</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>19</v>
@@ -877,7 +880,7 @@
         <v>20205</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>19</v>
@@ -904,7 +907,7 @@
         <v>20206</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>19</v>
@@ -931,7 +934,7 @@
         <v>20207</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>19</v>
@@ -958,7 +961,7 @@
         <v>20208</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>19</v>
@@ -970,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -985,7 +988,7 @@
         <v>20209</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>19</v>
@@ -997,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1012,7 +1015,7 @@
         <v>20210</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>19</v>
@@ -1024,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1032,7 +1035,7 @@
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
         <v>20111</v>
@@ -1053,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1061,7 +1064,7 @@
         <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3">
         <v>20112</v>
@@ -1070,7 +1073,7 @@
         <v>20212</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>19</v>
@@ -1097,7 +1100,7 @@
         <v>20213</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>19</v>
@@ -1124,7 +1127,7 @@
         <v>20214</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>19</v>
@@ -1151,7 +1154,7 @@
         <v>20215</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>19</v>
@@ -1178,7 +1181,7 @@
         <v>20216</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>19</v>
@@ -1205,7 +1208,7 @@
         <v>20217</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>19</v>
@@ -1232,7 +1235,7 @@
         <v>20218</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>19</v>
@@ -1259,7 +1262,7 @@
         <v>20219</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>19</v>
@@ -1286,7 +1289,7 @@
         <v>20220</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>19</v>
@@ -1313,7 +1316,7 @@
         <v>20221</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>19</v>
@@ -1333,7 +1336,7 @@
         <v>122</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="3">
         <v>20122</v>
@@ -1354,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1362,7 +1365,7 @@
         <v>123</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2">
         <v>20123</v>
@@ -1374,7 +1377,7 @@
         <v>18</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -1383,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1391,7 +1394,7 @@
         <v>201</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="4">
         <v>21101</v>
@@ -1403,7 +1406,7 @@
         <v>18</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -1420,7 +1423,7 @@
         <v>202</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="4">
         <v>21102</v>
@@ -1449,7 +1452,7 @@
         <v>203</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="4">
         <v>21103</v>
@@ -1461,7 +1464,7 @@
         <v>18</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -1478,7 +1481,7 @@
         <v>204</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="4">
         <v>21104</v>
@@ -1487,10 +1490,10 @@
         <v>21204</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G30" s="5">
         <v>101</v>
@@ -1514,10 +1517,10 @@
         <v>21205</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G31" s="5">
         <v>102</v>
@@ -1541,10 +1544,10 @@
         <v>21206</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G32" s="5">
         <v>103</v>
@@ -1568,10 +1571,10 @@
         <v>21207</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G33" s="5">
         <v>104</v>
@@ -1595,10 +1598,10 @@
         <v>21208</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G34" s="5">
         <v>105</v>
@@ -1622,10 +1625,10 @@
         <v>21209</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G35" s="5">
         <v>106</v>
@@ -1649,10 +1652,10 @@
         <v>21210</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G36" s="5">
         <v>107</v>
@@ -1676,10 +1679,10 @@
         <v>21211</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G37" s="5">
         <v>108</v>
@@ -1703,10 +1706,10 @@
         <v>21212</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G38" s="5">
         <v>109</v>
@@ -1730,10 +1733,10 @@
         <v>21213</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G39" s="5">
         <v>110</v>
@@ -1750,7 +1753,7 @@
         <v>214</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="4">
         <v>21114</v>
@@ -1759,10 +1762,10 @@
         <v>21214</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G40" s="5">
         <v>101</v>
@@ -1786,10 +1789,10 @@
         <v>21215</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G41" s="5">
         <v>102</v>
@@ -1813,10 +1816,10 @@
         <v>21216</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G42" s="5">
         <v>103</v>
@@ -1840,10 +1843,10 @@
         <v>21217</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G43" s="5">
         <v>104</v>
@@ -1867,10 +1870,10 @@
         <v>21218</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G44" s="5">
         <v>105</v>
@@ -1894,10 +1897,10 @@
         <v>21219</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G45" s="5">
         <v>106</v>
@@ -1921,10 +1924,10 @@
         <v>21220</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G46" s="5">
         <v>107</v>
@@ -1948,10 +1951,10 @@
         <v>21221</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G47" s="5">
         <v>108</v>
@@ -1975,10 +1978,10 @@
         <v>21222</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G48" s="5">
         <v>109</v>
@@ -2002,10 +2005,10 @@
         <v>21223</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G49" s="5">
         <v>110</v>
@@ -2022,7 +2025,7 @@
         <v>224</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C50" s="4">
         <v>21124</v>
@@ -2034,7 +2037,7 @@
         <v>17</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G50" s="6">
         <v>-1</v>
@@ -2051,7 +2054,7 @@
         <v>225</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" s="4">
         <v>21125</v>
@@ -2063,7 +2066,7 @@
         <v>18</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G51" s="7">
         <v>0</v>
@@ -2080,7 +2083,7 @@
         <v>301</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="4">
         <v>22101</v>
@@ -2089,10 +2092,10 @@
         <v>22201</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G52" s="5">
         <v>101</v>
@@ -2116,10 +2119,10 @@
         <v>22202</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G53" s="5">
         <v>102</v>
@@ -2143,10 +2146,10 @@
         <v>22203</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G54" s="5">
         <v>103</v>
@@ -2170,10 +2173,10 @@
         <v>22204</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G55" s="5">
         <v>104</v>
@@ -2197,10 +2200,10 @@
         <v>22205</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G56" s="5">
         <v>105</v>
@@ -2224,10 +2227,10 @@
         <v>22206</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G57" s="5">
         <v>106</v>
@@ -2251,10 +2254,10 @@
         <v>22207</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G58" s="5">
         <v>107</v>
@@ -2278,10 +2281,10 @@
         <v>22208</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G59" s="5">
         <v>108</v>
@@ -2305,10 +2308,10 @@
         <v>22209</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G60" s="5">
         <v>109</v>
@@ -2332,10 +2335,10 @@
         <v>22210</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G61" s="5">
         <v>110</v>

--- a/excel/develop.xlsx
+++ b/excel/develop.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="54">
   <si>
     <t>resource</t>
   </si>
@@ -125,13 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xiangmu_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiangmu_2</t>
-  </si>
-  <si>
     <t>1,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,41 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kuang_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kuang_2</t>
-  </si>
-  <si>
-    <t>kuang_3</t>
-  </si>
-  <si>
-    <t>kuang_4</t>
-  </si>
-  <si>
-    <t>kuang_5</t>
-  </si>
-  <si>
-    <t>kuang_6</t>
-  </si>
-  <si>
-    <t>kuang_7</t>
-  </si>
-  <si>
-    <t>kuang_8</t>
-  </si>
-  <si>
-    <t>kuang_9</t>
-  </si>
-  <si>
-    <t>kuang_10</t>
-  </si>
-  <si>
-    <t>kuang_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,6 +215,43 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuang1</t>
+  </si>
+  <si>
+    <t>kuang2</t>
+  </si>
+  <si>
+    <t>kuang3</t>
+  </si>
+  <si>
+    <t>kuang4</t>
+  </si>
+  <si>
+    <t>kuang5</t>
+  </si>
+  <si>
+    <t>kuang6</t>
+  </si>
+  <si>
+    <t>kuang7</t>
+  </si>
+  <si>
+    <t>kuang8</t>
+  </si>
+  <si>
+    <t>kuang9</t>
+  </si>
+  <si>
+    <t>kuang10</t>
+  </si>
+  <si>
+    <t>xiangmu1</t>
+  </si>
+  <si>
+    <t>xiangmu2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -655,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -691,10 +686,10 @@
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
@@ -746,16 +741,16 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -763,7 +758,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2">
         <v>20101</v>
@@ -772,10 +767,10 @@
         <v>20201</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="5">
         <v>101</v>
@@ -784,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -799,10 +794,10 @@
         <v>20202</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" s="5">
         <v>102</v>
@@ -826,10 +821,10 @@
         <v>20203</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="5">
         <v>103</v>
@@ -853,10 +848,10 @@
         <v>20204</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="5">
         <v>104</v>
@@ -880,10 +875,10 @@
         <v>20205</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="5">
         <v>105</v>
@@ -907,10 +902,10 @@
         <v>20206</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="5">
         <v>106</v>
@@ -934,10 +929,10 @@
         <v>20207</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10" s="5">
         <v>107</v>
@@ -961,10 +956,10 @@
         <v>20208</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G11" s="5">
         <v>108</v>
@@ -973,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -988,10 +983,10 @@
         <v>20209</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G12" s="5">
         <v>109</v>
@@ -1000,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1015,10 +1010,10 @@
         <v>20210</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G13" s="5">
         <v>110</v>
@@ -1027,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1035,7 +1030,7 @@
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
         <v>20111</v>
@@ -1044,10 +1039,10 @@
         <v>20211</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G14" s="6">
         <v>-1</v>
@@ -1056,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1064,7 +1059,7 @@
         <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3">
         <v>20112</v>
@@ -1073,10 +1068,10 @@
         <v>20212</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15" s="5">
         <v>101</v>
@@ -1100,10 +1095,10 @@
         <v>20213</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G16" s="5">
         <v>102</v>
@@ -1127,10 +1122,10 @@
         <v>20214</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G17" s="5">
         <v>103</v>
@@ -1154,10 +1149,10 @@
         <v>20215</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" s="5">
         <v>104</v>
@@ -1181,10 +1176,10 @@
         <v>20216</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G19" s="5">
         <v>105</v>
@@ -1208,10 +1203,10 @@
         <v>20217</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G20" s="5">
         <v>106</v>
@@ -1235,10 +1230,10 @@
         <v>20218</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G21" s="5">
         <v>107</v>
@@ -1262,10 +1257,10 @@
         <v>20219</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G22" s="5">
         <v>108</v>
@@ -1289,10 +1284,10 @@
         <v>20220</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G23" s="5">
         <v>109</v>
@@ -1316,10 +1311,10 @@
         <v>20221</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G24" s="5">
         <v>110</v>
@@ -1336,7 +1331,7 @@
         <v>122</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="3">
         <v>20122</v>
@@ -1345,10 +1340,10 @@
         <v>20222</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G25" s="6">
         <v>-1</v>
@@ -1357,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1365,7 +1360,7 @@
         <v>123</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2">
         <v>20123</v>
@@ -1374,10 +1369,10 @@
         <v>20223</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -1386,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1394,7 +1389,7 @@
         <v>201</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="4">
         <v>21101</v>
@@ -1403,10 +1398,10 @@
         <v>21201</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -1423,7 +1418,7 @@
         <v>202</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C28" s="4">
         <v>21102</v>
@@ -1432,10 +1427,10 @@
         <v>21202</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G28" s="6">
         <v>-1</v>
@@ -1452,7 +1447,7 @@
         <v>203</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" s="4">
         <v>21103</v>
@@ -1461,10 +1456,10 @@
         <v>21203</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -1481,7 +1476,7 @@
         <v>204</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C30" s="4">
         <v>21104</v>
@@ -1490,10 +1485,10 @@
         <v>21204</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G30" s="5">
         <v>101</v>
@@ -1517,10 +1512,10 @@
         <v>21205</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G31" s="5">
         <v>102</v>
@@ -1544,10 +1539,10 @@
         <v>21206</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G32" s="5">
         <v>103</v>
@@ -1571,10 +1566,10 @@
         <v>21207</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G33" s="5">
         <v>104</v>
@@ -1598,10 +1593,10 @@
         <v>21208</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G34" s="5">
         <v>105</v>
@@ -1625,10 +1620,10 @@
         <v>21209</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G35" s="5">
         <v>106</v>
@@ -1652,10 +1647,10 @@
         <v>21210</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G36" s="5">
         <v>107</v>
@@ -1679,10 +1674,10 @@
         <v>21211</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G37" s="5">
         <v>108</v>
@@ -1706,10 +1701,10 @@
         <v>21212</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G38" s="5">
         <v>109</v>
@@ -1733,10 +1728,10 @@
         <v>21213</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="G39" s="5">
         <v>110</v>
@@ -1753,7 +1748,7 @@
         <v>214</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C40" s="4">
         <v>21114</v>
@@ -1762,10 +1757,10 @@
         <v>21214</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G40" s="5">
         <v>101</v>
@@ -1789,10 +1784,10 @@
         <v>21215</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G41" s="5">
         <v>102</v>
@@ -1816,10 +1811,10 @@
         <v>21216</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G42" s="5">
         <v>103</v>
@@ -1843,10 +1838,10 @@
         <v>21217</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G43" s="5">
         <v>104</v>
@@ -1870,10 +1865,10 @@
         <v>21218</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G44" s="5">
         <v>105</v>
@@ -1897,10 +1892,10 @@
         <v>21219</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G45" s="5">
         <v>106</v>
@@ -1924,10 +1919,10 @@
         <v>21220</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G46" s="5">
         <v>107</v>
@@ -1951,10 +1946,10 @@
         <v>21221</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G47" s="5">
         <v>108</v>
@@ -1978,10 +1973,10 @@
         <v>21222</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G48" s="5">
         <v>109</v>
@@ -2005,10 +2000,10 @@
         <v>21223</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="G49" s="5">
         <v>110</v>
@@ -2025,7 +2020,7 @@
         <v>224</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C50" s="4">
         <v>21124</v>
@@ -2034,10 +2029,10 @@
         <v>21224</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G50" s="6">
         <v>-1</v>
@@ -2054,7 +2049,7 @@
         <v>225</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C51" s="4">
         <v>21125</v>
@@ -2063,10 +2058,10 @@
         <v>21225</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G51" s="7">
         <v>0</v>
@@ -2083,7 +2078,7 @@
         <v>301</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C52" s="4">
         <v>22101</v>
@@ -2092,10 +2087,10 @@
         <v>22201</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G52" s="5">
         <v>101</v>
@@ -2119,10 +2114,10 @@
         <v>22202</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G53" s="5">
         <v>102</v>
@@ -2146,10 +2141,10 @@
         <v>22203</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G54" s="5">
         <v>103</v>
@@ -2173,10 +2168,10 @@
         <v>22204</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G55" s="5">
         <v>104</v>
@@ -2200,10 +2195,10 @@
         <v>22205</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G56" s="5">
         <v>105</v>
@@ -2227,10 +2222,10 @@
         <v>22206</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G57" s="5">
         <v>106</v>
@@ -2254,10 +2249,10 @@
         <v>22207</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G58" s="5">
         <v>107</v>
@@ -2281,10 +2276,10 @@
         <v>22208</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G59" s="5">
         <v>108</v>
@@ -2308,10 +2303,10 @@
         <v>22209</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G60" s="5">
         <v>109</v>
@@ -2335,10 +2330,10 @@
         <v>22210</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G61" s="5">
         <v>110</v>

--- a/excel/develop.xlsx
+++ b/excel/develop.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="64">
   <si>
     <t>resource</t>
   </si>
@@ -252,6 +252,46 @@
   </si>
   <si>
     <t>xiangmu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>207000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2360000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6430000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36780000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5290000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63500000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>470000000000000000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -259,9 +299,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,10 +399,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -650,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -663,7 +700,7 @@
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.5" customWidth="1"/>
+    <col min="9" max="9" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1079,8 +1116,8 @@
       <c r="H15" s="5">
         <v>1</v>
       </c>
-      <c r="I15" s="8">
-        <v>207000000000000</v>
+      <c r="I15" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1106,8 +1143,8 @@
       <c r="H16" s="5">
         <v>1</v>
       </c>
-      <c r="I16" s="8">
-        <v>2360000000000000</v>
+      <c r="I16" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1133,8 +1170,8 @@
       <c r="H17" s="5">
         <v>1</v>
       </c>
-      <c r="I17" s="8">
-        <v>2.7E+16</v>
+      <c r="I17" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1160,8 +1197,8 @@
       <c r="H18" s="5">
         <v>1</v>
       </c>
-      <c r="I18" s="8">
-        <v>5.01E+17</v>
+      <c r="I18" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1187,8 +1224,8 @@
       <c r="H19" s="5">
         <v>1</v>
       </c>
-      <c r="I19" s="8">
-        <v>6.43E+18</v>
+      <c r="I19" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1214,8 +1251,8 @@
       <c r="H20" s="5">
         <v>1</v>
       </c>
-      <c r="I20" s="8">
-        <v>3.678E+19</v>
+      <c r="I20" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1241,8 +1278,8 @@
       <c r="H21" s="5">
         <v>1</v>
       </c>
-      <c r="I21" s="8">
-        <v>4.4E+20</v>
+      <c r="I21" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1268,8 +1305,8 @@
       <c r="H22" s="5">
         <v>1</v>
       </c>
-      <c r="I22" s="8">
-        <v>5.2899999999999995E+21</v>
+      <c r="I22" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1295,8 +1332,8 @@
       <c r="H23" s="5">
         <v>1</v>
       </c>
-      <c r="I23" s="8">
-        <v>6.3499999999999997E+22</v>
+      <c r="I23" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1322,8 +1359,8 @@
       <c r="H24" s="5">
         <v>1</v>
       </c>
-      <c r="I24" s="8">
-        <v>4.6999999999999997E+23</v>
+      <c r="I24" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">

--- a/excel/develop.xlsx
+++ b/excel/develop.xlsx
@@ -18,46 +18,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1.矿产产出翻倍（参数：翻倍数）
-2.销售游戏内容获取奖励增加（参数：百分比）
-3.矿产等级增加（参数：增加等级）</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
   <si>
     <t>resource</t>
   </si>
@@ -105,14 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mines</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>expendquantity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,22 +79,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗类型（道具id）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生效矿产组（-1为全部）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1级效果翻倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>210000</t>
   </si>
   <si>
@@ -198,18 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3级效果翻倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,6 +218,10 @@
   </si>
   <si>
     <t>470000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -299,7 +229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,21 +243,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -384,19 +299,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -684,11 +593,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -698,12 +607,11 @@
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="5" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.75" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -720,19 +628,16 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -749,19 +654,16 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -778,24 +680,21 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>20101</v>
@@ -804,22 +703,19 @@
         <v>20201</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10101</v>
       </c>
       <c r="G4" s="5">
-        <v>101</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>102</v>
       </c>
@@ -831,22 +727,19 @@
         <v>20202</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10102</v>
       </c>
       <c r="G5" s="5">
-        <v>102</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
         <v>850000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>103</v>
       </c>
@@ -858,22 +751,19 @@
         <v>20203</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10103</v>
       </c>
       <c r="G6" s="5">
-        <v>103</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
         <v>5700000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>104</v>
       </c>
@@ -885,22 +775,19 @@
         <v>20204</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10104</v>
       </c>
       <c r="G7" s="5">
-        <v>104</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
         <v>102000000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>105</v>
       </c>
@@ -912,22 +799,19 @@
         <v>20205</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10105</v>
       </c>
       <c r="G8" s="5">
-        <v>105</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
         <v>1320000000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>106</v>
       </c>
@@ -939,22 +823,19 @@
         <v>20206</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10106</v>
       </c>
       <c r="G9" s="5">
-        <v>106</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
         <v>4900000000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>107</v>
       </c>
@@ -966,22 +847,19 @@
         <v>20207</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>39</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10107</v>
       </c>
       <c r="G10" s="5">
-        <v>107</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
         <v>59000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>108</v>
       </c>
@@ -993,22 +871,19 @@
         <v>20208</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10108</v>
       </c>
       <c r="G11" s="5">
-        <v>108</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>109</v>
       </c>
@@ -1020,22 +895,19 @@
         <v>20209</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10109</v>
       </c>
       <c r="G12" s="5">
-        <v>109</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>110</v>
       </c>
@@ -1047,27 +919,24 @@
         <v>20210</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10110</v>
       </c>
       <c r="G13" s="5">
-        <v>110</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2">
         <v>20111</v>
@@ -1076,27 +945,24 @@
         <v>20211</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10111</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3">
         <v>20112</v>
@@ -1105,22 +971,19 @@
         <v>20212</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="F15" s="2">
+        <v>10101</v>
       </c>
       <c r="G15" s="5">
-        <v>101</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>113</v>
       </c>
@@ -1132,22 +995,19 @@
         <v>20213</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10102</v>
       </c>
       <c r="G16" s="5">
-        <v>102</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>114</v>
       </c>
@@ -1159,22 +1019,19 @@
         <v>20214</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="F17" s="2">
+        <v>10103</v>
       </c>
       <c r="G17" s="5">
-        <v>103</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>115</v>
       </c>
@@ -1186,22 +1043,19 @@
         <v>20215</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="F18" s="2">
+        <v>10104</v>
       </c>
       <c r="G18" s="5">
-        <v>104</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>116</v>
       </c>
@@ -1213,22 +1067,19 @@
         <v>20216</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="F19" s="2">
+        <v>10105</v>
       </c>
       <c r="G19" s="5">
-        <v>105</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>117</v>
       </c>
@@ -1240,22 +1091,19 @@
         <v>20217</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="F20" s="2">
+        <v>10106</v>
       </c>
       <c r="G20" s="5">
-        <v>106</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>118</v>
       </c>
@@ -1267,22 +1115,19 @@
         <v>20218</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>17</v>
+        <v>39</v>
+      </c>
+      <c r="F21" s="2">
+        <v>10107</v>
       </c>
       <c r="G21" s="5">
-        <v>107</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>119</v>
       </c>
@@ -1294,22 +1139,19 @@
         <v>20219</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
+      </c>
+      <c r="F22" s="2">
+        <v>10108</v>
       </c>
       <c r="G22" s="5">
-        <v>108</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>120</v>
       </c>
@@ -1321,22 +1163,19 @@
         <v>20220</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
+      </c>
+      <c r="F23" s="2">
+        <v>10109</v>
       </c>
       <c r="G23" s="5">
-        <v>109</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>121</v>
       </c>
@@ -1348,27 +1187,24 @@
         <v>20221</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="F24" s="2">
+        <v>10110</v>
       </c>
       <c r="G24" s="5">
-        <v>110</v>
-      </c>
-      <c r="H24" s="5">
-        <v>1</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>122</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C25" s="3">
         <v>20122</v>
@@ -1377,27 +1213,24 @@
         <v>20222</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H25" s="5">
-        <v>1</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="F25" s="2">
+        <v>10111</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>123</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2">
         <v>20123</v>
@@ -1406,27 +1239,24 @@
         <v>20223</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
-      <c r="H26" s="5">
-        <v>1</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="F26" s="2">
+        <v>10201</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>201</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C27" s="4">
         <v>21101</v>
@@ -1435,27 +1265,24 @@
         <v>21201</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>4</v>
-      </c>
-      <c r="I27" s="8">
+        <v>44</v>
+      </c>
+      <c r="F27" s="2">
+        <v>10201</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4</v>
+      </c>
+      <c r="H27" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>202</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C28" s="4">
         <v>21102</v>
@@ -1464,27 +1291,24 @@
         <v>21202</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H28" s="2">
-        <v>4</v>
-      </c>
-      <c r="I28" s="8">
+        <v>43</v>
+      </c>
+      <c r="F28" s="2">
+        <v>10111</v>
+      </c>
+      <c r="G28" s="2">
+        <v>4</v>
+      </c>
+      <c r="H28" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>203</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C29" s="4">
         <v>21103</v>
@@ -1493,27 +1317,24 @@
         <v>21203</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>4</v>
-      </c>
-      <c r="I29" s="8">
+        <v>44</v>
+      </c>
+      <c r="F29" s="2">
+        <v>10201</v>
+      </c>
+      <c r="G29" s="2">
+        <v>4</v>
+      </c>
+      <c r="H29" s="6">
         <v>100000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>204</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C30" s="4">
         <v>21104</v>
@@ -1522,22 +1343,19 @@
         <v>21204</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="5">
-        <v>101</v>
-      </c>
-      <c r="H30" s="2">
-        <v>4</v>
-      </c>
-      <c r="I30" s="8">
+        <v>33</v>
+      </c>
+      <c r="F30" s="2">
+        <v>10301</v>
+      </c>
+      <c r="G30" s="2">
+        <v>4</v>
+      </c>
+      <c r="H30" s="6">
         <v>250000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>205</v>
       </c>
@@ -1549,22 +1367,19 @@
         <v>21205</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="5">
-        <v>102</v>
-      </c>
-      <c r="H31" s="2">
-        <v>4</v>
-      </c>
-      <c r="I31" s="8">
+        <v>34</v>
+      </c>
+      <c r="F31" s="2">
+        <v>10302</v>
+      </c>
+      <c r="G31" s="2">
+        <v>4</v>
+      </c>
+      <c r="H31" s="6">
         <v>250000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>206</v>
       </c>
@@ -1576,22 +1391,19 @@
         <v>21206</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="5">
-        <v>103</v>
-      </c>
-      <c r="H32" s="2">
-        <v>4</v>
-      </c>
-      <c r="I32" s="8">
+        <v>35</v>
+      </c>
+      <c r="F32" s="2">
+        <v>10303</v>
+      </c>
+      <c r="G32" s="2">
+        <v>4</v>
+      </c>
+      <c r="H32" s="6">
         <v>250000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>207</v>
       </c>
@@ -1603,22 +1415,19 @@
         <v>21207</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="5">
-        <v>104</v>
-      </c>
-      <c r="H33" s="2">
-        <v>4</v>
-      </c>
-      <c r="I33" s="8">
+        <v>36</v>
+      </c>
+      <c r="F33" s="2">
+        <v>10304</v>
+      </c>
+      <c r="G33" s="2">
+        <v>4</v>
+      </c>
+      <c r="H33" s="6">
         <v>250000</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>208</v>
       </c>
@@ -1630,22 +1439,19 @@
         <v>21208</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="5">
-        <v>105</v>
-      </c>
-      <c r="H34" s="2">
-        <v>4</v>
-      </c>
-      <c r="I34" s="8">
+      <c r="F34" s="2">
+        <v>10305</v>
+      </c>
+      <c r="G34" s="2">
+        <v>4</v>
+      </c>
+      <c r="H34" s="6">
         <v>250000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>209</v>
       </c>
@@ -1657,22 +1463,19 @@
         <v>21209</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" s="5">
-        <v>106</v>
-      </c>
-      <c r="H35" s="2">
-        <v>4</v>
-      </c>
-      <c r="I35" s="8">
+        <v>38</v>
+      </c>
+      <c r="F35" s="2">
+        <v>10306</v>
+      </c>
+      <c r="G35" s="2">
+        <v>4</v>
+      </c>
+      <c r="H35" s="6">
         <v>250000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>210</v>
       </c>
@@ -1684,22 +1487,19 @@
         <v>21210</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" s="5">
-        <v>107</v>
-      </c>
-      <c r="H36" s="2">
-        <v>4</v>
-      </c>
-      <c r="I36" s="8">
+        <v>39</v>
+      </c>
+      <c r="F36" s="2">
+        <v>10307</v>
+      </c>
+      <c r="G36" s="2">
+        <v>4</v>
+      </c>
+      <c r="H36" s="6">
         <v>250000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>211</v>
       </c>
@@ -1711,22 +1511,19 @@
         <v>21211</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" s="5">
-        <v>108</v>
-      </c>
-      <c r="H37" s="2">
-        <v>4</v>
-      </c>
-      <c r="I37" s="8">
+        <v>40</v>
+      </c>
+      <c r="F37" s="2">
+        <v>10308</v>
+      </c>
+      <c r="G37" s="2">
+        <v>4</v>
+      </c>
+      <c r="H37" s="6">
         <v>250000</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>212</v>
       </c>
@@ -1738,22 +1535,19 @@
         <v>21212</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" s="5">
-        <v>109</v>
-      </c>
-      <c r="H38" s="2">
-        <v>4</v>
-      </c>
-      <c r="I38" s="8">
+        <v>41</v>
+      </c>
+      <c r="F38" s="2">
+        <v>10309</v>
+      </c>
+      <c r="G38" s="2">
+        <v>4</v>
+      </c>
+      <c r="H38" s="6">
         <v>250000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>213</v>
       </c>
@@ -1765,27 +1559,24 @@
         <v>21213</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="5">
-        <v>110</v>
-      </c>
-      <c r="H39" s="2">
-        <v>4</v>
-      </c>
-      <c r="I39" s="8">
+        <v>42</v>
+      </c>
+      <c r="F39" s="2">
+        <v>10310</v>
+      </c>
+      <c r="G39" s="2">
+        <v>4</v>
+      </c>
+      <c r="H39" s="6">
         <v>250000</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>214</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C40" s="4">
         <v>21114</v>
@@ -1794,22 +1585,19 @@
         <v>21214</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G40" s="5">
-        <v>101</v>
-      </c>
-      <c r="H40" s="2">
-        <v>4</v>
-      </c>
-      <c r="I40" s="8">
+        <v>33</v>
+      </c>
+      <c r="F40" s="2">
+        <v>10301</v>
+      </c>
+      <c r="G40" s="2">
+        <v>4</v>
+      </c>
+      <c r="H40" s="6">
         <v>2500000</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>215</v>
       </c>
@@ -1821,22 +1609,19 @@
         <v>21215</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" s="5">
-        <v>102</v>
-      </c>
-      <c r="H41" s="2">
-        <v>4</v>
-      </c>
-      <c r="I41" s="8">
+        <v>34</v>
+      </c>
+      <c r="F41" s="2">
+        <v>10302</v>
+      </c>
+      <c r="G41" s="2">
+        <v>4</v>
+      </c>
+      <c r="H41" s="6">
         <v>2500000</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>216</v>
       </c>
@@ -1848,22 +1633,19 @@
         <v>21216</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" s="5">
-        <v>103</v>
-      </c>
-      <c r="H42" s="2">
-        <v>4</v>
-      </c>
-      <c r="I42" s="8">
+        <v>35</v>
+      </c>
+      <c r="F42" s="2">
+        <v>10303</v>
+      </c>
+      <c r="G42" s="2">
+        <v>4</v>
+      </c>
+      <c r="H42" s="6">
         <v>2500000</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>217</v>
       </c>
@@ -1875,22 +1657,19 @@
         <v>21217</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="5">
-        <v>104</v>
-      </c>
-      <c r="H43" s="2">
-        <v>4</v>
-      </c>
-      <c r="I43" s="8">
+        <v>36</v>
+      </c>
+      <c r="F43" s="2">
+        <v>10304</v>
+      </c>
+      <c r="G43" s="2">
+        <v>4</v>
+      </c>
+      <c r="H43" s="6">
         <v>2500000</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>218</v>
       </c>
@@ -1902,22 +1681,19 @@
         <v>21218</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F44" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G44" s="5">
-        <v>105</v>
-      </c>
-      <c r="H44" s="2">
-        <v>4</v>
-      </c>
-      <c r="I44" s="8">
+      <c r="F44" s="2">
+        <v>10305</v>
+      </c>
+      <c r="G44" s="2">
+        <v>4</v>
+      </c>
+      <c r="H44" s="6">
         <v>2500000</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>219</v>
       </c>
@@ -1929,22 +1705,19 @@
         <v>21219</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" s="5">
-        <v>106</v>
-      </c>
-      <c r="H45" s="2">
-        <v>4</v>
-      </c>
-      <c r="I45" s="8">
+        <v>38</v>
+      </c>
+      <c r="F45" s="2">
+        <v>10306</v>
+      </c>
+      <c r="G45" s="2">
+        <v>4</v>
+      </c>
+      <c r="H45" s="6">
         <v>2500000</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>220</v>
       </c>
@@ -1956,22 +1729,19 @@
         <v>21220</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46" s="5">
-        <v>107</v>
-      </c>
-      <c r="H46" s="2">
-        <v>4</v>
-      </c>
-      <c r="I46" s="8">
+        <v>39</v>
+      </c>
+      <c r="F46" s="2">
+        <v>10307</v>
+      </c>
+      <c r="G46" s="2">
+        <v>4</v>
+      </c>
+      <c r="H46" s="6">
         <v>2500000</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>221</v>
       </c>
@@ -1983,22 +1753,19 @@
         <v>21221</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G47" s="5">
-        <v>108</v>
-      </c>
-      <c r="H47" s="2">
-        <v>4</v>
-      </c>
-      <c r="I47" s="8">
+        <v>40</v>
+      </c>
+      <c r="F47" s="2">
+        <v>10308</v>
+      </c>
+      <c r="G47" s="2">
+        <v>4</v>
+      </c>
+      <c r="H47" s="6">
         <v>2500000</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>222</v>
       </c>
@@ -2010,22 +1777,19 @@
         <v>21222</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G48" s="5">
-        <v>109</v>
-      </c>
-      <c r="H48" s="2">
-        <v>4</v>
-      </c>
-      <c r="I48" s="8">
+        <v>41</v>
+      </c>
+      <c r="F48" s="2">
+        <v>10309</v>
+      </c>
+      <c r="G48" s="2">
+        <v>4</v>
+      </c>
+      <c r="H48" s="6">
         <v>2500000</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>223</v>
       </c>
@@ -2037,27 +1801,24 @@
         <v>21223</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" s="5">
-        <v>110</v>
-      </c>
-      <c r="H49" s="2">
-        <v>4</v>
-      </c>
-      <c r="I49" s="8">
+        <v>42</v>
+      </c>
+      <c r="F49" s="2">
+        <v>10310</v>
+      </c>
+      <c r="G49" s="2">
+        <v>4</v>
+      </c>
+      <c r="H49" s="6">
         <v>2500000</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>224</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C50" s="4">
         <v>21124</v>
@@ -2066,27 +1827,24 @@
         <v>21224</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G50" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H50" s="2">
-        <v>4</v>
-      </c>
-      <c r="I50" s="8">
+        <v>43</v>
+      </c>
+      <c r="F50" s="2">
+        <v>10111</v>
+      </c>
+      <c r="G50" s="2">
+        <v>4</v>
+      </c>
+      <c r="H50" s="6">
         <v>10000000</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>225</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C51" s="4">
         <v>21125</v>
@@ -2095,27 +1853,24 @@
         <v>21225</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" s="7">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
-        <v>4</v>
-      </c>
-      <c r="I51" s="8">
+        <v>44</v>
+      </c>
+      <c r="F51" s="2">
+        <v>10201</v>
+      </c>
+      <c r="G51" s="2">
+        <v>4</v>
+      </c>
+      <c r="H51" s="6">
         <v>100000000</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>301</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C52" s="4">
         <v>22101</v>
@@ -2124,22 +1879,19 @@
         <v>22201</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G52" s="5">
-        <v>101</v>
-      </c>
-      <c r="H52" s="2">
+        <v>33</v>
+      </c>
+      <c r="F52" s="2">
+        <v>10112</v>
+      </c>
+      <c r="G52" s="2">
         <v>5</v>
       </c>
-      <c r="I52" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>302</v>
       </c>
@@ -2151,22 +1903,19 @@
         <v>22202</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G53" s="5">
-        <v>102</v>
-      </c>
-      <c r="H53" s="2">
+        <v>34</v>
+      </c>
+      <c r="F53" s="2">
+        <v>10113</v>
+      </c>
+      <c r="G53" s="2">
         <v>5</v>
       </c>
-      <c r="I53" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>303</v>
       </c>
@@ -2178,22 +1927,19 @@
         <v>22203</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G54" s="5">
-        <v>103</v>
-      </c>
-      <c r="H54" s="2">
+        <v>35</v>
+      </c>
+      <c r="F54" s="2">
+        <v>10114</v>
+      </c>
+      <c r="G54" s="2">
         <v>5</v>
       </c>
-      <c r="I54" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H54" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>304</v>
       </c>
@@ -2205,22 +1951,19 @@
         <v>22204</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G55" s="5">
-        <v>104</v>
-      </c>
-      <c r="H55" s="2">
+        <v>36</v>
+      </c>
+      <c r="F55" s="2">
+        <v>10115</v>
+      </c>
+      <c r="G55" s="2">
         <v>5</v>
       </c>
-      <c r="I55" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H55" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>305</v>
       </c>
@@ -2232,22 +1975,19 @@
         <v>22205</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G56" s="5">
-        <v>105</v>
-      </c>
-      <c r="H56" s="2">
+        <v>37</v>
+      </c>
+      <c r="F56" s="2">
+        <v>10116</v>
+      </c>
+      <c r="G56" s="2">
         <v>5</v>
       </c>
-      <c r="I56" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>306</v>
       </c>
@@ -2259,22 +1999,19 @@
         <v>22206</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G57" s="5">
-        <v>106</v>
-      </c>
-      <c r="H57" s="2">
+        <v>38</v>
+      </c>
+      <c r="F57" s="2">
+        <v>10117</v>
+      </c>
+      <c r="G57" s="2">
         <v>5</v>
       </c>
-      <c r="I57" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>307</v>
       </c>
@@ -2286,22 +2023,19 @@
         <v>22207</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F58" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G58" s="5">
-        <v>107</v>
-      </c>
-      <c r="H58" s="2">
+      <c r="F58" s="2">
+        <v>10118</v>
+      </c>
+      <c r="G58" s="2">
         <v>5</v>
       </c>
-      <c r="I58" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H58" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>308</v>
       </c>
@@ -2313,22 +2047,19 @@
         <v>22208</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G59" s="5">
-        <v>108</v>
-      </c>
-      <c r="H59" s="2">
+        <v>40</v>
+      </c>
+      <c r="F59" s="2">
+        <v>10119</v>
+      </c>
+      <c r="G59" s="2">
         <v>5</v>
       </c>
-      <c r="I59" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>309</v>
       </c>
@@ -2340,22 +2071,19 @@
         <v>22209</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G60" s="5">
-        <v>109</v>
-      </c>
-      <c r="H60" s="2">
+        <v>41</v>
+      </c>
+      <c r="F60" s="2">
+        <v>10120</v>
+      </c>
+      <c r="G60" s="2">
         <v>5</v>
       </c>
-      <c r="I60" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>310</v>
       </c>
@@ -2367,18 +2095,15 @@
         <v>22210</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G61" s="5">
-        <v>110</v>
-      </c>
-      <c r="H61" s="2">
+        <v>42</v>
+      </c>
+      <c r="F61" s="2">
+        <v>10121</v>
+      </c>
+      <c r="G61" s="2">
         <v>5</v>
       </c>
-      <c r="I61" s="9">
+      <c r="H61" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2387,6 +2112,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/develop.xlsx
+++ b/excel/develop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
   <si>
     <t>resource</t>
   </si>
@@ -222,6 +222,18 @@
   </si>
   <si>
     <t>effectid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效矿产组（-1为全部，0为无）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -611,7 +623,7 @@
     <col min="8" max="8" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -636,8 +648,11 @@
       <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -662,8 +677,11 @@
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -688,8 +706,11 @@
       <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>101</v>
       </c>
@@ -714,8 +735,11 @@
       <c r="H4" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>102</v>
       </c>
@@ -730,7 +754,7 @@
         <v>34</v>
       </c>
       <c r="F5" s="2">
-        <v>10102</v>
+        <v>10101</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -738,8 +762,11 @@
       <c r="H5" s="6">
         <v>850000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>103</v>
       </c>
@@ -754,7 +781,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="2">
-        <v>10103</v>
+        <v>10101</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -762,8 +789,11 @@
       <c r="H6" s="6">
         <v>5700000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>104</v>
       </c>
@@ -778,7 +808,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="2">
-        <v>10104</v>
+        <v>10101</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
@@ -786,8 +816,11 @@
       <c r="H7" s="6">
         <v>102000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>105</v>
       </c>
@@ -802,7 +835,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="2">
-        <v>10105</v>
+        <v>10101</v>
       </c>
       <c r="G8" s="5">
         <v>1</v>
@@ -810,8 +843,11 @@
       <c r="H8" s="6">
         <v>1320000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>106</v>
       </c>
@@ -826,7 +862,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="2">
-        <v>10106</v>
+        <v>10101</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
@@ -834,8 +870,11 @@
       <c r="H9" s="6">
         <v>4900000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>107</v>
       </c>
@@ -850,7 +889,7 @@
         <v>39</v>
       </c>
       <c r="F10" s="2">
-        <v>10107</v>
+        <v>10101</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
@@ -858,8 +897,11 @@
       <c r="H10" s="6">
         <v>59000000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>108</v>
       </c>
@@ -874,7 +916,7 @@
         <v>40</v>
       </c>
       <c r="F11" s="2">
-        <v>10108</v>
+        <v>10101</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -882,8 +924,11 @@
       <c r="H11" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>109</v>
       </c>
@@ -898,7 +943,7 @@
         <v>41</v>
       </c>
       <c r="F12" s="2">
-        <v>10109</v>
+        <v>10101</v>
       </c>
       <c r="G12" s="5">
         <v>1</v>
@@ -906,8 +951,11 @@
       <c r="H12" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>110</v>
       </c>
@@ -922,7 +970,7 @@
         <v>42</v>
       </c>
       <c r="F13" s="2">
-        <v>10110</v>
+        <v>10101</v>
       </c>
       <c r="G13" s="5">
         <v>1</v>
@@ -930,8 +978,11 @@
       <c r="H13" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>111</v>
       </c>
@@ -948,7 +999,7 @@
         <v>43</v>
       </c>
       <c r="F14" s="2">
-        <v>10111</v>
+        <v>10101</v>
       </c>
       <c r="G14" s="5">
         <v>1</v>
@@ -956,8 +1007,11 @@
       <c r="H14" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>112</v>
       </c>
@@ -974,7 +1028,7 @@
         <v>33</v>
       </c>
       <c r="F15" s="2">
-        <v>10101</v>
+        <v>10111</v>
       </c>
       <c r="G15" s="5">
         <v>1</v>
@@ -982,8 +1036,11 @@
       <c r="H15" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>113</v>
       </c>
@@ -998,7 +1055,7 @@
         <v>34</v>
       </c>
       <c r="F16" s="2">
-        <v>10102</v>
+        <v>10111</v>
       </c>
       <c r="G16" s="5">
         <v>1</v>
@@ -1006,8 +1063,11 @@
       <c r="H16" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>114</v>
       </c>
@@ -1022,7 +1082,7 @@
         <v>35</v>
       </c>
       <c r="F17" s="2">
-        <v>10103</v>
+        <v>10111</v>
       </c>
       <c r="G17" s="5">
         <v>1</v>
@@ -1030,8 +1090,11 @@
       <c r="H17" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>115</v>
       </c>
@@ -1046,7 +1109,7 @@
         <v>36</v>
       </c>
       <c r="F18" s="2">
-        <v>10104</v>
+        <v>10111</v>
       </c>
       <c r="G18" s="5">
         <v>1</v>
@@ -1054,8 +1117,11 @@
       <c r="H18" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>116</v>
       </c>
@@ -1070,7 +1136,7 @@
         <v>37</v>
       </c>
       <c r="F19" s="2">
-        <v>10105</v>
+        <v>10111</v>
       </c>
       <c r="G19" s="5">
         <v>1</v>
@@ -1078,8 +1144,11 @@
       <c r="H19" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>117</v>
       </c>
@@ -1094,7 +1163,7 @@
         <v>38</v>
       </c>
       <c r="F20" s="2">
-        <v>10106</v>
+        <v>10111</v>
       </c>
       <c r="G20" s="5">
         <v>1</v>
@@ -1102,8 +1171,11 @@
       <c r="H20" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>118</v>
       </c>
@@ -1118,7 +1190,7 @@
         <v>39</v>
       </c>
       <c r="F21" s="2">
-        <v>10107</v>
+        <v>10111</v>
       </c>
       <c r="G21" s="5">
         <v>1</v>
@@ -1126,8 +1198,11 @@
       <c r="H21" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>119</v>
       </c>
@@ -1142,7 +1217,7 @@
         <v>40</v>
       </c>
       <c r="F22" s="2">
-        <v>10108</v>
+        <v>10111</v>
       </c>
       <c r="G22" s="5">
         <v>1</v>
@@ -1150,8 +1225,11 @@
       <c r="H22" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>120</v>
       </c>
@@ -1166,7 +1244,7 @@
         <v>41</v>
       </c>
       <c r="F23" s="2">
-        <v>10109</v>
+        <v>10111</v>
       </c>
       <c r="G23" s="5">
         <v>1</v>
@@ -1174,8 +1252,11 @@
       <c r="H23" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>121</v>
       </c>
@@ -1190,7 +1271,7 @@
         <v>42</v>
       </c>
       <c r="F24" s="2">
-        <v>10110</v>
+        <v>10111</v>
       </c>
       <c r="G24" s="5">
         <v>1</v>
@@ -1198,8 +1279,11 @@
       <c r="H24" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>122</v>
       </c>
@@ -1224,8 +1308,11 @@
       <c r="H25" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>123</v>
       </c>
@@ -1250,8 +1337,11 @@
       <c r="H26" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>201</v>
       </c>
@@ -1276,8 +1366,11 @@
       <c r="H27" s="6">
         <v>1000</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>202</v>
       </c>
@@ -1302,8 +1395,11 @@
       <c r="H28" s="6">
         <v>10000</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>203</v>
       </c>
@@ -1328,8 +1424,11 @@
       <c r="H29" s="6">
         <v>100000</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>204</v>
       </c>
@@ -1354,8 +1453,11 @@
       <c r="H30" s="6">
         <v>250000</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>205</v>
       </c>
@@ -1370,7 +1472,7 @@
         <v>34</v>
       </c>
       <c r="F31" s="2">
-        <v>10302</v>
+        <v>10301</v>
       </c>
       <c r="G31" s="2">
         <v>4</v>
@@ -1378,8 +1480,11 @@
       <c r="H31" s="6">
         <v>250000</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>206</v>
       </c>
@@ -1394,7 +1499,7 @@
         <v>35</v>
       </c>
       <c r="F32" s="2">
-        <v>10303</v>
+        <v>10301</v>
       </c>
       <c r="G32" s="2">
         <v>4</v>
@@ -1402,8 +1507,11 @@
       <c r="H32" s="6">
         <v>250000</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>207</v>
       </c>
@@ -1418,7 +1526,7 @@
         <v>36</v>
       </c>
       <c r="F33" s="2">
-        <v>10304</v>
+        <v>10301</v>
       </c>
       <c r="G33" s="2">
         <v>4</v>
@@ -1426,8 +1534,11 @@
       <c r="H33" s="6">
         <v>250000</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>208</v>
       </c>
@@ -1442,7 +1553,7 @@
         <v>37</v>
       </c>
       <c r="F34" s="2">
-        <v>10305</v>
+        <v>10301</v>
       </c>
       <c r="G34" s="2">
         <v>4</v>
@@ -1450,8 +1561,11 @@
       <c r="H34" s="6">
         <v>250000</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>209</v>
       </c>
@@ -1466,7 +1580,7 @@
         <v>38</v>
       </c>
       <c r="F35" s="2">
-        <v>10306</v>
+        <v>10301</v>
       </c>
       <c r="G35" s="2">
         <v>4</v>
@@ -1474,8 +1588,11 @@
       <c r="H35" s="6">
         <v>250000</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>210</v>
       </c>
@@ -1490,7 +1607,7 @@
         <v>39</v>
       </c>
       <c r="F36" s="2">
-        <v>10307</v>
+        <v>10301</v>
       </c>
       <c r="G36" s="2">
         <v>4</v>
@@ -1498,8 +1615,11 @@
       <c r="H36" s="6">
         <v>250000</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>211</v>
       </c>
@@ -1514,7 +1634,7 @@
         <v>40</v>
       </c>
       <c r="F37" s="2">
-        <v>10308</v>
+        <v>10301</v>
       </c>
       <c r="G37" s="2">
         <v>4</v>
@@ -1522,8 +1642,11 @@
       <c r="H37" s="6">
         <v>250000</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>212</v>
       </c>
@@ -1538,7 +1661,7 @@
         <v>41</v>
       </c>
       <c r="F38" s="2">
-        <v>10309</v>
+        <v>10301</v>
       </c>
       <c r="G38" s="2">
         <v>4</v>
@@ -1546,8 +1669,11 @@
       <c r="H38" s="6">
         <v>250000</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>213</v>
       </c>
@@ -1562,7 +1688,7 @@
         <v>42</v>
       </c>
       <c r="F39" s="2">
-        <v>10310</v>
+        <v>10301</v>
       </c>
       <c r="G39" s="2">
         <v>4</v>
@@ -1570,8 +1696,11 @@
       <c r="H39" s="6">
         <v>250000</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>214</v>
       </c>
@@ -1596,8 +1725,11 @@
       <c r="H40" s="6">
         <v>2500000</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>215</v>
       </c>
@@ -1612,7 +1744,7 @@
         <v>34</v>
       </c>
       <c r="F41" s="2">
-        <v>10302</v>
+        <v>10301</v>
       </c>
       <c r="G41" s="2">
         <v>4</v>
@@ -1620,8 +1752,11 @@
       <c r="H41" s="6">
         <v>2500000</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>216</v>
       </c>
@@ -1636,7 +1771,7 @@
         <v>35</v>
       </c>
       <c r="F42" s="2">
-        <v>10303</v>
+        <v>10301</v>
       </c>
       <c r="G42" s="2">
         <v>4</v>
@@ -1644,8 +1779,11 @@
       <c r="H42" s="6">
         <v>2500000</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>217</v>
       </c>
@@ -1660,7 +1798,7 @@
         <v>36</v>
       </c>
       <c r="F43" s="2">
-        <v>10304</v>
+        <v>10301</v>
       </c>
       <c r="G43" s="2">
         <v>4</v>
@@ -1668,8 +1806,11 @@
       <c r="H43" s="6">
         <v>2500000</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>218</v>
       </c>
@@ -1684,7 +1825,7 @@
         <v>37</v>
       </c>
       <c r="F44" s="2">
-        <v>10305</v>
+        <v>10301</v>
       </c>
       <c r="G44" s="2">
         <v>4</v>
@@ -1692,8 +1833,11 @@
       <c r="H44" s="6">
         <v>2500000</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>219</v>
       </c>
@@ -1708,7 +1852,7 @@
         <v>38</v>
       </c>
       <c r="F45" s="2">
-        <v>10306</v>
+        <v>10301</v>
       </c>
       <c r="G45" s="2">
         <v>4</v>
@@ -1716,8 +1860,11 @@
       <c r="H45" s="6">
         <v>2500000</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>220</v>
       </c>
@@ -1732,7 +1879,7 @@
         <v>39</v>
       </c>
       <c r="F46" s="2">
-        <v>10307</v>
+        <v>10301</v>
       </c>
       <c r="G46" s="2">
         <v>4</v>
@@ -1740,8 +1887,11 @@
       <c r="H46" s="6">
         <v>2500000</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>221</v>
       </c>
@@ -1756,7 +1906,7 @@
         <v>40</v>
       </c>
       <c r="F47" s="2">
-        <v>10308</v>
+        <v>10301</v>
       </c>
       <c r="G47" s="2">
         <v>4</v>
@@ -1764,8 +1914,11 @@
       <c r="H47" s="6">
         <v>2500000</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>222</v>
       </c>
@@ -1780,7 +1933,7 @@
         <v>41</v>
       </c>
       <c r="F48" s="2">
-        <v>10309</v>
+        <v>10301</v>
       </c>
       <c r="G48" s="2">
         <v>4</v>
@@ -1788,8 +1941,11 @@
       <c r="H48" s="6">
         <v>2500000</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>223</v>
       </c>
@@ -1804,7 +1960,7 @@
         <v>42</v>
       </c>
       <c r="F49" s="2">
-        <v>10310</v>
+        <v>10301</v>
       </c>
       <c r="G49" s="2">
         <v>4</v>
@@ -1812,8 +1968,11 @@
       <c r="H49" s="6">
         <v>2500000</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>224</v>
       </c>
@@ -1838,8 +1997,11 @@
       <c r="H50" s="6">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>225</v>
       </c>
@@ -1864,8 +2026,11 @@
       <c r="H51" s="6">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>301</v>
       </c>
@@ -1882,7 +2047,7 @@
         <v>33</v>
       </c>
       <c r="F52" s="2">
-        <v>10112</v>
+        <v>10111</v>
       </c>
       <c r="G52" s="2">
         <v>5</v>
@@ -1890,8 +2055,11 @@
       <c r="H52" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>302</v>
       </c>
@@ -1906,7 +2074,7 @@
         <v>34</v>
       </c>
       <c r="F53" s="2">
-        <v>10113</v>
+        <v>10111</v>
       </c>
       <c r="G53" s="2">
         <v>5</v>
@@ -1914,8 +2082,11 @@
       <c r="H53" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>303</v>
       </c>
@@ -1930,7 +2101,7 @@
         <v>35</v>
       </c>
       <c r="F54" s="2">
-        <v>10114</v>
+        <v>10111</v>
       </c>
       <c r="G54" s="2">
         <v>5</v>
@@ -1938,8 +2109,11 @@
       <c r="H54" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>304</v>
       </c>
@@ -1954,7 +2128,7 @@
         <v>36</v>
       </c>
       <c r="F55" s="2">
-        <v>10115</v>
+        <v>10111</v>
       </c>
       <c r="G55" s="2">
         <v>5</v>
@@ -1962,8 +2136,11 @@
       <c r="H55" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>305</v>
       </c>
@@ -1978,7 +2155,7 @@
         <v>37</v>
       </c>
       <c r="F56" s="2">
-        <v>10116</v>
+        <v>10111</v>
       </c>
       <c r="G56" s="2">
         <v>5</v>
@@ -1986,8 +2163,11 @@
       <c r="H56" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>306</v>
       </c>
@@ -2002,7 +2182,7 @@
         <v>38</v>
       </c>
       <c r="F57" s="2">
-        <v>10117</v>
+        <v>10111</v>
       </c>
       <c r="G57" s="2">
         <v>5</v>
@@ -2010,8 +2190,11 @@
       <c r="H57" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>307</v>
       </c>
@@ -2026,7 +2209,7 @@
         <v>39</v>
       </c>
       <c r="F58" s="2">
-        <v>10118</v>
+        <v>10111</v>
       </c>
       <c r="G58" s="2">
         <v>5</v>
@@ -2034,8 +2217,11 @@
       <c r="H58" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>308</v>
       </c>
@@ -2050,7 +2236,7 @@
         <v>40</v>
       </c>
       <c r="F59" s="2">
-        <v>10119</v>
+        <v>10111</v>
       </c>
       <c r="G59" s="2">
         <v>5</v>
@@ -2058,8 +2244,11 @@
       <c r="H59" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>309</v>
       </c>
@@ -2074,7 +2263,7 @@
         <v>41</v>
       </c>
       <c r="F60" s="2">
-        <v>10120</v>
+        <v>10111</v>
       </c>
       <c r="G60" s="2">
         <v>5</v>
@@ -2082,8 +2271,11 @@
       <c r="H60" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>310</v>
       </c>
@@ -2098,13 +2290,16 @@
         <v>42</v>
       </c>
       <c r="F61" s="2">
-        <v>10121</v>
+        <v>10111</v>
       </c>
       <c r="G61" s="2">
         <v>5</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
+      </c>
+      <c r="I61" s="2">
+        <v>110</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/excel/develop.xlsx
+++ b/excel/develop.xlsx
@@ -18,6 +18,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+效果表类型：
+11.矿产效果翻倍（参加：倍数/1000）
+12.销售游戏获得钻石增加（参数：百分之/1000）
+13.矿产等级增加（参数：增加等级数）</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
   <si>
@@ -241,7 +280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +294,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -605,11 +659,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2307,5 +2361,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>